--- a/files/29_11_2022/route_number_2.xlsx
+++ b/files/29_11_2022/route_number_2.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,872 +435,1249 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>607775</v>
+        <v>634888</v>
       </c>
       <c r="B2">
-        <v>698998</v>
+        <v>622327</v>
       </c>
       <c r="C2">
-        <v>37.92335739</v>
+        <v>38.7897566</v>
       </c>
       <c r="D2">
-        <v>56.13575314</v>
+        <v>55.08754166</v>
       </c>
       <c r="E2">
-        <v>37.85222464</v>
+        <v>38.79702681</v>
       </c>
       <c r="F2">
-        <v>56.05582476</v>
+        <v>55.08384086</v>
       </c>
       <c r="G2">
-        <v>26.87</v>
+        <v>10.67</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
       <c r="I2">
-        <v>16.87</v>
+        <v>0.6699999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>698998</v>
+        <v>622327</v>
       </c>
       <c r="B3">
-        <v>638717</v>
+        <v>606559</v>
       </c>
       <c r="C3">
-        <v>37.85222464</v>
+        <v>38.79702681</v>
       </c>
       <c r="D3">
-        <v>56.05582476</v>
+        <v>55.08384086</v>
       </c>
       <c r="E3">
-        <v>37.85973864</v>
+        <v>38.79688666</v>
       </c>
       <c r="F3">
-        <v>56.00982079</v>
+        <v>55.08336348</v>
       </c>
       <c r="G3">
-        <v>20.26</v>
+        <v>11.49</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
       <c r="I3">
-        <v>10.26</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>638717</v>
+        <v>606559</v>
       </c>
       <c r="B4">
-        <v>622383</v>
+        <v>606572</v>
       </c>
       <c r="C4">
-        <v>37.85973864</v>
+        <v>38.79688666</v>
       </c>
       <c r="D4">
-        <v>56.00982079</v>
+        <v>55.08336348</v>
       </c>
       <c r="E4">
-        <v>37.8416069</v>
+        <v>38.79881809</v>
       </c>
       <c r="F4">
-        <v>56.01107336</v>
+        <v>55.07865098</v>
       </c>
       <c r="G4">
-        <v>12.17</v>
+        <v>12.1</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
       <c r="I4">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>622383</v>
+        <v>606572</v>
       </c>
       <c r="B5">
-        <v>677529</v>
+        <v>606578</v>
       </c>
       <c r="C5">
-        <v>37.8416069</v>
+        <v>38.79881809</v>
       </c>
       <c r="D5">
-        <v>56.01107336</v>
+        <v>55.07865098</v>
       </c>
       <c r="E5">
-        <v>37.87227757</v>
+        <v>38.77142778</v>
       </c>
       <c r="F5">
-        <v>56.00199436</v>
+        <v>55.08466423</v>
       </c>
       <c r="G5">
-        <v>13.87</v>
+        <v>11.74</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
       <c r="I5">
-        <v>3.870000000000001</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>677529</v>
+        <v>606578</v>
       </c>
       <c r="B6">
-        <v>688219</v>
+        <v>606565</v>
       </c>
       <c r="C6">
-        <v>37.87227757</v>
+        <v>38.77142778</v>
       </c>
       <c r="D6">
-        <v>56.00199436</v>
+        <v>55.08466423</v>
       </c>
       <c r="E6">
-        <v>37.86093866</v>
+        <v>38.76163927</v>
       </c>
       <c r="F6">
-        <v>55.95864023</v>
+        <v>55.08050357</v>
       </c>
       <c r="G6">
-        <v>20.33</v>
+        <v>11.92</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>10.33</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>688219</v>
+        <v>606565</v>
       </c>
       <c r="B7">
-        <v>682277</v>
+        <v>619705</v>
       </c>
       <c r="C7">
-        <v>37.86093866</v>
+        <v>38.76163927</v>
       </c>
       <c r="D7">
-        <v>55.95864023</v>
+        <v>55.08050357</v>
       </c>
       <c r="E7">
-        <v>37.83379799</v>
+        <v>38.7726497</v>
       </c>
       <c r="F7">
-        <v>55.94835244</v>
+        <v>55.0905023</v>
       </c>
       <c r="G7">
-        <v>14.49</v>
+        <v>11.59</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
       <c r="I7">
-        <v>4.49</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>682277</v>
+        <v>619705</v>
       </c>
       <c r="B8">
-        <v>635297</v>
+        <v>607516</v>
       </c>
       <c r="C8">
-        <v>37.83379799</v>
+        <v>38.7726497</v>
       </c>
       <c r="D8">
-        <v>55.94835244</v>
+        <v>55.0905023</v>
       </c>
       <c r="E8">
-        <v>37.86269928</v>
+        <v>38.76257651</v>
       </c>
       <c r="F8">
-        <v>55.92285414</v>
+        <v>55.09295052</v>
       </c>
       <c r="G8">
-        <v>18.55</v>
+        <v>12.73</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
       <c r="I8">
-        <v>8.550000000000001</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>635297</v>
+        <v>607516</v>
       </c>
       <c r="B9">
-        <v>634861</v>
+        <v>606579</v>
       </c>
       <c r="C9">
-        <v>37.86269928</v>
+        <v>38.76257651</v>
       </c>
       <c r="D9">
-        <v>55.92285414</v>
+        <v>55.09295052</v>
       </c>
       <c r="E9">
-        <v>37.9902959</v>
+        <v>38.76318966</v>
       </c>
       <c r="F9">
-        <v>55.92120302</v>
+        <v>55.08829058</v>
       </c>
       <c r="G9">
-        <v>25.75</v>
+        <v>11.84</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
       <c r="I9">
-        <v>15.75</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>634861</v>
+        <v>606579</v>
       </c>
       <c r="B10">
-        <v>634558</v>
+        <v>606576</v>
       </c>
       <c r="C10">
-        <v>37.9902959</v>
+        <v>38.76318966</v>
       </c>
       <c r="D10">
-        <v>55.92120302</v>
+        <v>55.08829058</v>
       </c>
       <c r="E10">
-        <v>37.97625914</v>
+        <v>38.76106991</v>
       </c>
       <c r="F10">
-        <v>55.93940045</v>
+        <v>55.08742341</v>
       </c>
       <c r="G10">
-        <v>16.16</v>
+        <v>11.8</v>
       </c>
       <c r="H10">
         <v>10</v>
       </c>
       <c r="I10">
-        <v>6.16</v>
+        <v>1.800000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>634558</v>
+        <v>606576</v>
       </c>
       <c r="B11">
-        <v>608042</v>
+        <v>619580</v>
       </c>
       <c r="C11">
-        <v>37.97625914</v>
+        <v>38.76106991</v>
       </c>
       <c r="D11">
-        <v>55.93940045</v>
+        <v>55.08742341</v>
       </c>
       <c r="E11">
-        <v>37.96101797</v>
+        <v>38.76613717</v>
       </c>
       <c r="F11">
-        <v>55.97034265</v>
+        <v>55.08474307</v>
       </c>
       <c r="G11">
-        <v>19.44</v>
+        <v>15.55</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11">
-        <v>9.439999999999998</v>
+        <v>5.550000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>608042</v>
+        <v>619580</v>
       </c>
       <c r="B12">
-        <v>635730</v>
+        <v>606563</v>
       </c>
       <c r="C12">
-        <v>37.96101797</v>
+        <v>38.76613717</v>
       </c>
       <c r="D12">
-        <v>55.97034265</v>
+        <v>55.08474307</v>
       </c>
       <c r="E12">
-        <v>38.04894813</v>
+        <v>38.74774703</v>
       </c>
       <c r="F12">
-        <v>55.95339342</v>
+        <v>55.06331345</v>
       </c>
       <c r="G12">
-        <v>22.02</v>
+        <v>11.55</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
       <c r="I12">
-        <v>12.02</v>
+        <v>1.550000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>635730</v>
+        <v>606563</v>
       </c>
       <c r="B13">
-        <v>634945</v>
+        <v>698994</v>
       </c>
       <c r="C13">
-        <v>38.04894813</v>
+        <v>38.74774703</v>
       </c>
       <c r="D13">
-        <v>55.95339342</v>
+        <v>55.06331345</v>
       </c>
       <c r="E13">
-        <v>38.15183917</v>
+        <v>38.74870617</v>
       </c>
       <c r="F13">
-        <v>55.90001429</v>
+        <v>55.0636901</v>
       </c>
       <c r="G13">
-        <v>37.93</v>
+        <v>11.19</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
-        <v>27.93</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>634945</v>
+        <v>698994</v>
       </c>
       <c r="B14">
-        <v>608012</v>
+        <v>698993</v>
       </c>
       <c r="C14">
-        <v>38.15183917</v>
+        <v>38.74870617</v>
       </c>
       <c r="D14">
-        <v>55.90001429</v>
+        <v>55.0636901</v>
       </c>
       <c r="E14">
-        <v>38.19305602</v>
+        <v>38.71555463</v>
       </c>
       <c r="F14">
-        <v>55.87058306</v>
+        <v>55.07769236</v>
       </c>
       <c r="G14">
-        <v>19.31</v>
+        <v>16.25</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14">
-        <v>9.310000000000002</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>608012</v>
+        <v>698993</v>
       </c>
       <c r="B15">
-        <v>682204</v>
+        <v>619587</v>
       </c>
       <c r="C15">
-        <v>38.19305602</v>
+        <v>38.71555463</v>
       </c>
       <c r="D15">
-        <v>55.87058306</v>
+        <v>55.07769236</v>
       </c>
       <c r="E15">
-        <v>38.19356844</v>
+        <v>38.80401673</v>
       </c>
       <c r="F15">
-        <v>55.84358254</v>
+        <v>55.07174427</v>
       </c>
       <c r="G15">
-        <v>19.18</v>
+        <v>21.28</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <v>9.18</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>682204</v>
+        <v>619587</v>
       </c>
       <c r="B16">
-        <v>635286</v>
+        <v>606562</v>
       </c>
       <c r="C16">
-        <v>38.19356844</v>
+        <v>38.80401673</v>
       </c>
       <c r="D16">
-        <v>55.84358254</v>
+        <v>55.07174427</v>
       </c>
       <c r="E16">
-        <v>38.03812603</v>
+        <v>38.8006663</v>
       </c>
       <c r="F16">
-        <v>55.7245306</v>
+        <v>55.08227295</v>
       </c>
       <c r="G16">
-        <v>45.3</v>
+        <v>11.41</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
       <c r="I16">
-        <v>35.3</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>635286</v>
+        <v>606562</v>
       </c>
       <c r="B17">
-        <v>635516</v>
+        <v>606569</v>
       </c>
       <c r="C17">
-        <v>38.03812603</v>
+        <v>38.8006663</v>
       </c>
       <c r="D17">
-        <v>55.7245306</v>
+        <v>55.08227295</v>
       </c>
       <c r="E17">
-        <v>37.90115806</v>
+        <v>38.80521675</v>
       </c>
       <c r="F17">
-        <v>55.69625293</v>
+        <v>55.07983348</v>
       </c>
       <c r="G17">
-        <v>31.68</v>
+        <v>13</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
       <c r="I17">
-        <v>21.68</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>635516</v>
+        <v>606569</v>
       </c>
       <c r="B18">
-        <v>635511</v>
+        <v>657948</v>
       </c>
       <c r="C18">
-        <v>37.90115806</v>
+        <v>38.80521675</v>
       </c>
       <c r="D18">
-        <v>55.69625293</v>
+        <v>55.07983348</v>
       </c>
       <c r="E18">
-        <v>37.89532765</v>
+        <v>38.72528549</v>
       </c>
       <c r="F18">
-        <v>55.67699392</v>
+        <v>55.13246922</v>
       </c>
       <c r="G18">
-        <v>16</v>
+        <v>25.09</v>
       </c>
       <c r="H18">
         <v>10</v>
       </c>
       <c r="I18">
-        <v>6</v>
+        <v>15.09</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>635511</v>
+        <v>657948</v>
       </c>
       <c r="B19">
-        <v>682749</v>
+        <v>619209</v>
       </c>
       <c r="C19">
-        <v>37.89532765</v>
+        <v>38.72528549</v>
       </c>
       <c r="D19">
-        <v>55.67699392</v>
+        <v>55.13246922</v>
       </c>
       <c r="E19">
-        <v>37.92689614</v>
+        <v>38.72775832</v>
       </c>
       <c r="F19">
-        <v>55.65411027</v>
+        <v>55.13553383</v>
       </c>
       <c r="G19">
-        <v>18.69</v>
+        <v>11.52</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
       <c r="I19">
-        <v>8.689999999999998</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>682749</v>
+        <v>619209</v>
       </c>
       <c r="B20">
-        <v>625032</v>
+        <v>619217</v>
       </c>
       <c r="C20">
-        <v>37.92689614</v>
+        <v>38.72775832</v>
       </c>
       <c r="D20">
-        <v>55.65411027</v>
+        <v>55.13553383</v>
       </c>
       <c r="E20">
-        <v>37.76852812</v>
+        <v>38.77017958</v>
       </c>
       <c r="F20">
-        <v>55.66748133</v>
+        <v>55.21678065</v>
       </c>
       <c r="G20">
-        <v>27.57</v>
+        <v>26.62</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20">
-        <v>17.57</v>
+        <v>16.62</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>625032</v>
+        <v>619217</v>
       </c>
       <c r="B21">
-        <v>692629</v>
+        <v>639712</v>
       </c>
       <c r="C21">
-        <v>37.76852812</v>
+        <v>38.77017958</v>
       </c>
       <c r="D21">
-        <v>55.66748133</v>
+        <v>55.21678065</v>
       </c>
       <c r="E21">
-        <v>37.75791623</v>
+        <v>38.75909907</v>
       </c>
       <c r="F21">
-        <v>55.80506355</v>
+        <v>55.24775351</v>
       </c>
       <c r="G21">
-        <v>31.8</v>
+        <v>17.17</v>
       </c>
       <c r="H21">
         <v>10</v>
       </c>
       <c r="I21">
-        <v>21.8</v>
+        <v>7.170000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>692629</v>
+        <v>639712</v>
       </c>
       <c r="B22">
-        <v>407002</v>
+        <v>649981</v>
       </c>
       <c r="C22">
-        <v>37.75791623</v>
+        <v>38.75909907</v>
       </c>
       <c r="D22">
-        <v>55.80506355</v>
+        <v>55.24775351</v>
       </c>
       <c r="E22">
-        <v>37.8007886</v>
+        <v>38.76576928</v>
       </c>
       <c r="F22">
-        <v>55.8044504</v>
+        <v>55.24833163</v>
       </c>
       <c r="G22">
-        <v>12.32</v>
+        <v>11.5</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
       <c r="I22">
-        <v>2.32</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>407002</v>
+        <v>649981</v>
       </c>
       <c r="B23">
-        <v>606118</v>
+        <v>607019</v>
       </c>
       <c r="C23">
-        <v>37.8007886</v>
+        <v>38.76576928</v>
       </c>
       <c r="D23">
-        <v>55.8044504</v>
+        <v>55.24833163</v>
       </c>
       <c r="E23">
-        <v>37.72612</v>
+        <v>38.74079653</v>
       </c>
       <c r="F23">
-        <v>55.87915403</v>
+        <v>55.2655524</v>
       </c>
       <c r="G23">
-        <v>26.15</v>
+        <v>14.76</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
       <c r="I23">
-        <v>16.15</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>606118</v>
+        <v>607019</v>
       </c>
       <c r="B24">
-        <v>606064</v>
+        <v>635235</v>
       </c>
       <c r="C24">
-        <v>37.72612</v>
+        <v>38.74079653</v>
       </c>
       <c r="D24">
-        <v>55.87915403</v>
+        <v>55.2655524</v>
       </c>
       <c r="E24">
-        <v>37.71330953</v>
+        <v>38.75012956</v>
       </c>
       <c r="F24">
-        <v>55.8782124</v>
+        <v>55.27382117</v>
       </c>
       <c r="G24">
-        <v>15.16</v>
+        <v>12.6</v>
       </c>
       <c r="H24">
         <v>10</v>
       </c>
       <c r="I24">
-        <v>5.16</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>606064</v>
+        <v>635235</v>
       </c>
       <c r="B25">
-        <v>637549</v>
+        <v>635503</v>
       </c>
       <c r="C25">
-        <v>37.71330953</v>
+        <v>38.75012956</v>
       </c>
       <c r="D25">
-        <v>55.8782124</v>
+        <v>55.27382117</v>
       </c>
       <c r="E25">
-        <v>37.66845757</v>
+        <v>38.68465822</v>
       </c>
       <c r="F25">
-        <v>55.86193326</v>
+        <v>55.32419149</v>
       </c>
       <c r="G25">
-        <v>17.72</v>
+        <v>23.35</v>
       </c>
       <c r="H25">
         <v>10</v>
       </c>
       <c r="I25">
-        <v>7.719999999999999</v>
+        <v>13.35</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>637549</v>
+        <v>635503</v>
       </c>
       <c r="B26">
-        <v>680319</v>
+        <v>607020</v>
       </c>
       <c r="C26">
-        <v>37.66845757</v>
+        <v>38.68465822</v>
       </c>
       <c r="D26">
-        <v>55.86193326</v>
+        <v>55.32419149</v>
       </c>
       <c r="E26">
-        <v>37.59062687</v>
+        <v>38.66358605</v>
       </c>
       <c r="F26">
-        <v>55.86824433</v>
+        <v>55.3233247</v>
       </c>
       <c r="G26">
-        <v>17.42</v>
+        <v>12.95</v>
       </c>
       <c r="H26">
         <v>10</v>
       </c>
       <c r="I26">
-        <v>7.420000000000002</v>
+        <v>2.949999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>680319</v>
+        <v>607020</v>
       </c>
       <c r="B27">
-        <v>634658</v>
+        <v>622343</v>
       </c>
       <c r="C27">
-        <v>37.59062687</v>
+        <v>38.66358605</v>
       </c>
       <c r="D27">
-        <v>55.86824433</v>
+        <v>55.3233247</v>
       </c>
       <c r="E27">
-        <v>37.61037908</v>
+        <v>38.64531585</v>
       </c>
       <c r="F27">
-        <v>55.89210026</v>
+        <v>55.31467013</v>
       </c>
       <c r="G27">
-        <v>18.36</v>
+        <v>15.22</v>
       </c>
       <c r="H27">
         <v>10</v>
       </c>
       <c r="I27">
-        <v>8.359999999999999</v>
+        <v>5.219999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>634658</v>
+        <v>622343</v>
       </c>
       <c r="B28">
-        <v>679082</v>
+        <v>698964</v>
       </c>
       <c r="C28">
-        <v>37.61037908</v>
+        <v>38.64531585</v>
       </c>
       <c r="D28">
-        <v>55.89210026</v>
+        <v>55.31467013</v>
       </c>
       <c r="E28">
-        <v>37.52221679</v>
+        <v>38.71881946</v>
       </c>
       <c r="F28">
-        <v>55.89532368</v>
+        <v>55.34054071</v>
       </c>
       <c r="G28">
-        <v>22.35</v>
+        <v>21.25</v>
       </c>
       <c r="H28">
         <v>10</v>
       </c>
       <c r="I28">
-        <v>12.35</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>679082</v>
+        <v>698964</v>
       </c>
       <c r="B29">
-        <v>606124</v>
+        <v>635248</v>
       </c>
       <c r="C29">
-        <v>37.52221679</v>
+        <v>38.71881946</v>
       </c>
       <c r="D29">
-        <v>55.89532368</v>
+        <v>55.34054071</v>
       </c>
       <c r="E29">
-        <v>37.57098854</v>
+        <v>38.71712826</v>
       </c>
       <c r="F29">
-        <v>55.82652381</v>
+        <v>55.34098443</v>
       </c>
       <c r="G29">
-        <v>21.99</v>
+        <v>11.97</v>
       </c>
       <c r="H29">
         <v>10</v>
       </c>
       <c r="I29">
-        <v>11.99</v>
+        <v>1.970000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>606124</v>
+        <v>635248</v>
       </c>
       <c r="B30">
-        <v>627763</v>
+        <v>607065</v>
       </c>
       <c r="C30">
-        <v>37.57098854</v>
+        <v>38.71712826</v>
       </c>
       <c r="D30">
-        <v>55.82652381</v>
+        <v>55.34098443</v>
       </c>
       <c r="E30">
-        <v>37.71110657</v>
+        <v>38.36358633</v>
       </c>
       <c r="F30">
-        <v>55.91950371</v>
+        <v>55.19594229</v>
       </c>
       <c r="G30">
-        <v>34.22</v>
+        <v>42.61</v>
       </c>
       <c r="H30">
         <v>10</v>
       </c>
       <c r="I30">
-        <v>24.22</v>
+        <v>32.61</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>627763</v>
+        <v>607065</v>
       </c>
       <c r="B31">
-        <v>607519</v>
+        <v>690294</v>
       </c>
       <c r="C31">
-        <v>37.71110657</v>
+        <v>38.36358633</v>
       </c>
       <c r="D31">
-        <v>55.91950371</v>
+        <v>55.19594229</v>
       </c>
       <c r="E31">
-        <v>37.74386758</v>
+        <v>38.08071809</v>
       </c>
       <c r="F31">
-        <v>55.97843992</v>
+        <v>54.89704017</v>
       </c>
       <c r="G31">
-        <v>23.35</v>
+        <v>58.16</v>
       </c>
       <c r="H31">
         <v>10</v>
       </c>
       <c r="I31">
+        <v>48.16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>690294</v>
+      </c>
+      <c r="B32">
+        <v>634021</v>
+      </c>
+      <c r="C32">
+        <v>38.08071809</v>
+      </c>
+      <c r="D32">
+        <v>54.89704017</v>
+      </c>
+      <c r="E32">
+        <v>38.07797643</v>
+      </c>
+      <c r="F32">
+        <v>54.89149116</v>
+      </c>
+      <c r="G32">
+        <v>11.71</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <v>1.710000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>634021</v>
+      </c>
+      <c r="B33">
+        <v>607064</v>
+      </c>
+      <c r="C33">
+        <v>38.07797643</v>
+      </c>
+      <c r="D33">
+        <v>54.89149116</v>
+      </c>
+      <c r="E33">
+        <v>38.07213836</v>
+      </c>
+      <c r="F33">
+        <v>54.89201234</v>
+      </c>
+      <c r="G33">
+        <v>11.03</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>1.029999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>607064</v>
+      </c>
+      <c r="B34">
+        <v>662475</v>
+      </c>
+      <c r="C34">
+        <v>38.07213836</v>
+      </c>
+      <c r="D34">
+        <v>54.89201234</v>
+      </c>
+      <c r="E34">
+        <v>38.066147</v>
+      </c>
+      <c r="F34">
+        <v>54.88307348</v>
+      </c>
+      <c r="G34">
+        <v>11.5</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>662475</v>
+      </c>
+      <c r="B35">
+        <v>607066</v>
+      </c>
+      <c r="C35">
+        <v>38.066147</v>
+      </c>
+      <c r="D35">
+        <v>54.88307348</v>
+      </c>
+      <c r="E35">
+        <v>38.06612949</v>
+      </c>
+      <c r="F35">
+        <v>54.89108385</v>
+      </c>
+      <c r="G35">
+        <v>11.95</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>1.949999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>607066</v>
+      </c>
+      <c r="B36">
+        <v>607060</v>
+      </c>
+      <c r="C36">
+        <v>38.06612949</v>
+      </c>
+      <c r="D36">
+        <v>54.89108385</v>
+      </c>
+      <c r="E36">
+        <v>38.05776874</v>
+      </c>
+      <c r="F36">
+        <v>54.88214061</v>
+      </c>
+      <c r="G36">
+        <v>12.14</v>
+      </c>
+      <c r="H36">
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <v>2.140000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>607060</v>
+      </c>
+      <c r="B37">
+        <v>607071</v>
+      </c>
+      <c r="C37">
+        <v>38.05776874</v>
+      </c>
+      <c r="D37">
+        <v>54.88214061</v>
+      </c>
+      <c r="E37">
+        <v>38.07872973</v>
+      </c>
+      <c r="F37">
+        <v>54.88298151</v>
+      </c>
+      <c r="G37">
+        <v>11.82</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="I37">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>607071</v>
+      </c>
+      <c r="B38">
+        <v>699054</v>
+      </c>
+      <c r="C38">
+        <v>38.07872973</v>
+      </c>
+      <c r="D38">
+        <v>54.88298151</v>
+      </c>
+      <c r="E38">
+        <v>38.05919576</v>
+      </c>
+      <c r="F38">
+        <v>54.89856761</v>
+      </c>
+      <c r="G38">
+        <v>14.7</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38">
+        <v>4.699999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>699054</v>
+      </c>
+      <c r="B39">
+        <v>644731</v>
+      </c>
+      <c r="C39">
+        <v>38.05919576</v>
+      </c>
+      <c r="D39">
+        <v>54.89856761</v>
+      </c>
+      <c r="E39">
+        <v>38.08759851</v>
+      </c>
+      <c r="F39">
+        <v>54.88645019</v>
+      </c>
+      <c r="G39">
+        <v>14.09</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
+      </c>
+      <c r="I39">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>644731</v>
+      </c>
+      <c r="B40">
+        <v>607062</v>
+      </c>
+      <c r="C40">
+        <v>38.08759851</v>
+      </c>
+      <c r="D40">
+        <v>54.88645019</v>
+      </c>
+      <c r="E40">
+        <v>38.10746897</v>
+      </c>
+      <c r="F40">
+        <v>54.88560053</v>
+      </c>
+      <c r="G40">
+        <v>18.6</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <v>8.600000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>607062</v>
+      </c>
+      <c r="B41">
+        <v>606553</v>
+      </c>
+      <c r="C41">
+        <v>38.10746897</v>
+      </c>
+      <c r="D41">
+        <v>54.88560053</v>
+      </c>
+      <c r="E41">
+        <v>38.19249981</v>
+      </c>
+      <c r="F41">
+        <v>54.8441209</v>
+      </c>
+      <c r="G41">
+        <v>36.13</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>26.13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>606553</v>
+      </c>
+      <c r="B42">
+        <v>609337</v>
+      </c>
+      <c r="C42">
+        <v>38.19249981</v>
+      </c>
+      <c r="D42">
+        <v>54.8441209</v>
+      </c>
+      <c r="E42">
+        <v>38.24791986</v>
+      </c>
+      <c r="F42">
+        <v>54.8527926</v>
+      </c>
+      <c r="G42">
+        <v>17.2</v>
+      </c>
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <v>7.199999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>609337</v>
+      </c>
+      <c r="B43">
+        <v>606556</v>
+      </c>
+      <c r="C43">
+        <v>38.24791986</v>
+      </c>
+      <c r="D43">
+        <v>54.8527926</v>
+      </c>
+      <c r="E43">
+        <v>38.24540594</v>
+      </c>
+      <c r="F43">
+        <v>54.842334</v>
+      </c>
+      <c r="G43">
         <v>13.35</v>
+      </c>
+      <c r="H43">
+        <v>10</v>
+      </c>
+      <c r="I43">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>606556</v>
+      </c>
+      <c r="B44">
+        <v>698972</v>
+      </c>
+      <c r="C44">
+        <v>38.24540594</v>
+      </c>
+      <c r="D44">
+        <v>54.842334</v>
+      </c>
+      <c r="E44">
+        <v>38.2464264</v>
+      </c>
+      <c r="F44">
+        <v>54.8384843</v>
+      </c>
+      <c r="G44">
+        <v>11.9</v>
+      </c>
+      <c r="H44">
+        <v>10</v>
+      </c>
+      <c r="I44">
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>
